--- a/CashFlow/VRSN_cashflow.xlsx
+++ b/CashFlow/VRSN_cashflow.xlsx
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>48000000.0</v>
+        <v>22023000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>47000000.0</v>
+        <v>2227000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>42086000.0</v>
+        <v>1174000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>64327000.0</v>
+        <v>65123000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>41585000.0</v>
+        <v>4176000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>-24000.0</v>
